--- a/server/식물정보/식물정보.xlsx
+++ b/server/식물정보/식물정보.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhy59\Documents\GitHub\DataVase_Project\server\식물정보\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB699E4-B401-4315-84CC-9F2AB43EE815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16155" windowHeight="9645"/>
+    <workbookView xWindow="2628" yWindow="756" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,11 +142,64 @@
 &gt; 온도가 높고 습기가 많은 곳에서 잘 자란다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&gt; 따뜻한 곳을 좋아한다.
+&gt; 직사광선을 피한 집안에서 밝은 곳에 두어야 한다.
+&gt; 잎이 두꺼워 물을 많이 저장해놓는다.
+&gt; 잎이 넓어 증산작용이 활발해 실내 습기조절에 탁월하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달 ~ 보름에 한 번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 잎이 넓고 커서 공기정화기능이 탁월하다.
+&gt; 꽃이 피면 새를 닮아 극락조라고 한다.
+&gt; 기본적으로 물을 좋아하지만 건조하게 관리하는 것이 좋다.
+&gt; 고온다습한 환경을 좋아한다.
+&gt; 온도는 18 ~ 25도에 통풍이 잘되고 빛이 환하게 들어오는 곳에 두는 것이 좋다.
+&gt; 추위에 약해서 실내에서 따뜻하게 키우는 것이 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통/ 관리 요구 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 주 1회
+겨울 10일에 1회
+겉흙이 마른 후 흠뻑 젖을 때까지 주는 것이 좋고 과습의 경우 잎이 까맣게 변한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 속에 물을 머금고 있어 많은 물을 필요로 하지 않는다.
+&gt; 과습이 일어나면 오히려 잘 자라지 못한다.
+&gt; 물이 부족하면 쭈굴쭈굴해진다.
+&gt; 통풍이 잘 될 수록 물마름이 좋아 과습이 발생하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한달에 한 번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무나무( Rubber tree)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락조( Bird of paradise flower)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스투키( Stuckyi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,16 +333,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,6 +374,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -332,6 +388,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,9 +472,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,148 +716,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="10" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="3" max="10" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:10" ht="177" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:10" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" s="9" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:10" s="7" customFormat="1" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="H6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -772,12 +890,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
